--- a/CanTeenManagement/CanTeenManagement/bin/Debug/Barcode_Test.xlsx
+++ b/CanTeenManagement/CanTeenManagement/bin/Debug/Barcode_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Nam3ki1\NhapmonCNPM\project1\ISE_NNDK_13\CanTeenManagement\CanTeenManagement\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37B96-4ADB-49A6-AAC0-015300351BFE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC7C540-15AD-412A-AAAD-491FA0D8E37F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7351E209-78D9-41D8-BE41-1961091214EE}"/>
   </bookViews>
@@ -55,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -369,47 +370,76 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E5FE0313-78CC-451E-B860-60B0DD8B4AAA}">
+  <we:reference id="wa104381026" version="1.1.0.0" store="vi-VN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104381026" version="1.1.0.0" store="WA104381026" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032D955B-FD7D-445A-B963-DF1C3A3EA86A}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1612352</v>
+      <c r="A1" s="1">
+        <v>1612339</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>1612339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1612339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1612339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1612365</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1612339</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1612352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>